--- a/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A59045-2862-443D-A36F-C3294BF09A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7CB88-5AED-456C-9856-EFBB3875F9A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="112">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,112 +65,301 @@
     <t>閒置(4)</t>
   </si>
   <si>
+    <t>素</t>
+  </si>
+  <si>
     <t>飯食部(1)</t>
   </si>
   <si>
-    <t>01.紐約燒肉+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>愛佳便當 - 單點(3)</t>
-  </si>
-  <si>
-    <t>2020-02-05-01:57:08</t>
-  </si>
-  <si>
-    <t>02.糖醋里肌+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>03.九層塔雞腿排+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>04.無骨香雞排+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>05.卡拉雞腿+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>06.香烤豬排+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>07.起司豬排+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>08.鹹酥雞丁+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>09.日式魚柳條+1副主菜+3副菜</t>
-  </si>
-  <si>
-    <t>11.紐約燒肉+2副菜</t>
-  </si>
-  <si>
-    <t>12.超值四菜特餐</t>
-  </si>
-  <si>
-    <t>閒置中的餐點</t>
-  </si>
-  <si>
-    <t>21.什錦炒飯+紐約燒肉+2副菜</t>
-  </si>
-  <si>
-    <t>麵食部(2)</t>
-  </si>
-  <si>
-    <t>22.什錦炒飯+糖醋里肌+2副菜</t>
-  </si>
-  <si>
-    <t>23.什錦炒飯+九層塔雞腿排+2副菜</t>
-  </si>
-  <si>
-    <t>24.什錦炒飯+無骨香雞排+2副菜</t>
-  </si>
-  <si>
-    <t>25.什錦炒飯+卡拉雞腿+2副菜</t>
-  </si>
-  <si>
-    <t>26.什錦炒飯+香烤豬排+2副菜</t>
-  </si>
-  <si>
-    <t>27.什錦炒飯+起司豬排+2副菜</t>
-  </si>
-  <si>
-    <t>28.什錦炒飯+鹹酥雞丁+2副菜</t>
-  </si>
-  <si>
-    <t>29.什錦炒飯+日式魚柳條+2副菜</t>
-  </si>
-  <si>
-    <t>31.什錦炒飯+紐約燒肉</t>
-  </si>
-  <si>
-    <t>32.什錦炒飯+糖醋里肌</t>
-  </si>
-  <si>
-    <t>33.什錦炒飯+九層塔雞腿排</t>
-  </si>
-  <si>
-    <t>34.什錦炒飯+無骨香雞排</t>
-  </si>
-  <si>
-    <t>35.什錦炒飯+卡拉雞腿</t>
-  </si>
-  <si>
-    <t>36.什錦炒飯+香烤豬排</t>
-  </si>
-  <si>
-    <t>37.什錦炒飯+起司豬排</t>
-  </si>
-  <si>
-    <t>38.什錦炒飯+鹹酥雞丁</t>
-  </si>
-  <si>
-    <t>39.什錦炒飯+日式魚柳條</t>
-  </si>
-  <si>
-    <t>閒置(3)</t>
-  </si>
-  <si>
-    <t>2020-02-05-01:57:09</t>
+    <t>台灣小吃部(1)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:09</t>
+  </si>
+  <si>
+    <t>海苔御飯糰</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯</t>
+  </si>
+  <si>
+    <t>紅燒肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>滷肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>焗烤白醬飯+起司豬排</t>
+  </si>
+  <si>
+    <t>焗烤白醬麵+起司豬排</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:10</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯+雞排</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯</t>
+  </si>
+  <si>
+    <t>韓式拌飯</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:11</t>
+  </si>
+  <si>
+    <t>牛肉粥</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:12</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:13</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:14</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:15</t>
+  </si>
+  <si>
+    <t>閒置的餐點</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:16</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:17</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:18</t>
+  </si>
+  <si>
+    <t>卡拉雞+三副菜</t>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+  </si>
+  <si>
+    <t>起司豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:19</t>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜</t>
+  </si>
+  <si>
+    <t>烤肉飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:20</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:21</t>
+  </si>
+  <si>
+    <t>蒜香鹹豬肉+三副菜</t>
+  </si>
+  <si>
+    <t>浦燒魚飯+雞塊+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:22</t>
+  </si>
+  <si>
+    <t>鐵路豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:23</t>
+  </si>
+  <si>
+    <t>無骨雞排飯+三副菜</t>
+  </si>
+  <si>
+    <t>雞腿飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:24</t>
+  </si>
+  <si>
+    <t>黑胡椒豬柳+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:25</t>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:26</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:27</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:28</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:29</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:30</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:31</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:32</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:33</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+荷包蛋+青菜</t>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:34</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+荷包蛋+小菜</t>
+  </si>
+  <si>
+    <t>乾粄條+小菜+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:35</t>
+  </si>
+  <si>
+    <t>牛肉湯麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:36</t>
+  </si>
+  <si>
+    <t>酸辣湯餃</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:37</t>
+  </si>
+  <si>
+    <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
+  </si>
+  <si>
+    <t>牛肉麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:38</t>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:39</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋+卡拉雞</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:40</t>
+  </si>
+  <si>
+    <t>烤肉乾麵</t>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:41</t>
+  </si>
+  <si>
+    <t>貢丸豚骨麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:42</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:43</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:44</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:45</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:46</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:47</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:48</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:49</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:50</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:51</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:52</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:53</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:54</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:55</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:56</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:57</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:58</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:59</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:01</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:02</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:03</t>
+  </si>
+  <si>
+    <t>蔥抓餅+蛋+雞排2333</t>
   </si>
 </sst>
 </file>
@@ -801,16 +990,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -819,7 +1008,7 @@
         <v>-1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -830,13 +1019,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -848,7 +1037,7 @@
         <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -859,13 +1048,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -877,7 +1066,7 @@
         <v>-1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -888,13 +1077,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -906,7 +1095,7 @@
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -917,13 +1106,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -935,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -946,13 +1135,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -964,7 +1153,7 @@
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -975,13 +1164,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -993,24 +1182,24 @@
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1022,24 +1211,24 @@
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1051,24 +1240,24 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1080,24 +1269,24 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1109,53 +1298,53 @@
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1167,27 +1356,24 @@
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>214</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1196,27 +1382,24 @@
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1225,27 +1408,24 @@
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1254,27 +1434,24 @@
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>217</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1283,27 +1460,24 @@
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1312,27 +1486,24 @@
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1341,27 +1512,24 @@
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1370,27 +1538,27 @@
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1399,27 +1567,27 @@
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1428,27 +1596,27 @@
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1457,27 +1625,27 @@
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1486,27 +1654,27 @@
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1515,24 +1683,24 @@
         <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1544,24 +1712,24 @@
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1573,24 +1741,24 @@
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1602,24 +1770,24 @@
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1631,24 +1799,24 @@
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1660,24 +1828,24 @@
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1689,24 +1857,24 @@
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1718,24 +1886,24 @@
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1747,24 +1915,24 @@
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1776,24 +1944,24 @@
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1805,256 +1973,253 @@
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37" t="s">
         <v>39</v>
       </c>
-      <c r="C37">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>238</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -2066,24 +2231,24 @@
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2095,24 +2260,24 @@
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -2124,24 +2289,24 @@
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2153,24 +2318,24 @@
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2182,24 +2347,24 @@
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2211,24 +2376,24 @@
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -2240,372 +2405,372 @@
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -2617,24 +2782,24 @@
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2646,24 +2811,21 @@
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>265</v>
-      </c>
-      <c r="B66" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -2675,24 +2837,21 @@
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>266</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -2704,24 +2863,24 @@
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -2733,24 +2892,24 @@
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -2762,24 +2921,24 @@
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -2791,24 +2950,24 @@
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2820,24 +2979,24 @@
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -2849,24 +3008,24 @@
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -2878,24 +3037,24 @@
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -2907,24 +3066,24 @@
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2936,24 +3095,24 @@
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -2965,24 +3124,24 @@
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -3000,18 +3159,18 @@
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -3029,18 +3188,18 @@
         <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -3058,18 +3217,18 @@
         <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -3087,18 +3246,18 @@
         <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -3116,18 +3275,18 @@
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -3145,18 +3304,18 @@
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -3174,18 +3333,18 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -3203,18 +3362,18 @@
         <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3232,18 +3391,18 @@
         <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -3261,18 +3420,18 @@
         <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -3290,18 +3449,18 @@
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -3319,18 +3478,18 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -3348,18 +3507,18 @@
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -3377,18 +3536,18 @@
         <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -3406,18 +3565,18 @@
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -3435,18 +3594,18 @@
         <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -3464,18 +3623,18 @@
         <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -3493,18 +3652,18 @@
         <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -3522,18 +3681,18 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -3551,18 +3710,18 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -3580,18 +3739,18 @@
         <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -3609,18 +3768,18 @@
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -3638,18 +3797,18 @@
         <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -3667,18 +3826,18 @@
         <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -3696,7 +3855,7 @@
         <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
